--- a/REVER_DailyTracker_20200429.xlsx
+++ b/REVER_DailyTracker_20200429.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elaya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A76A7E-B24F-4D91-8F77-34BB4BF0B6EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A5345D-04F0-400D-AA29-800F4811BD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -82,13 +80,19 @@
   <si>
     <t>Hold</t>
   </si>
+  <si>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,14 +196,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1092,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,12 +1136,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">

--- a/REVER_DailyTracker_20200429.xlsx
+++ b/REVER_DailyTracker_20200429.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A5345D-04F0-400D-AA29-800F4811BD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B10135-62F5-4C01-8277-1B4E9FB5DDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -86,15 +86,21 @@
   <si>
     <t>Loginpage (Frontend)</t>
   </si>
+  <si>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +121,29 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -193,10 +222,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -214,12 +258,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{977A165A-86B7-4A3D-BA0A-F488ABBCA049}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{E4B2AE11-5705-4849-91FC-595C833D5885}"/>
+    <cellStyle name="標準 2 3" xfId="3" xr:uid="{1CDA0DCB-70E4-4DFB-B365-A1B80010F7DD}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{1CA9189C-1243-479D-B428-B7CFA63C9349}"/>
+    <cellStyle name="標準 4" xfId="5" xr:uid="{6C37E308-D74C-4EC7-97DC-729B90EC5481}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D5285C25-DF5E-47AD-BB61-8EBDD2655ECD}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -531,21 +611,21 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -568,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -589,7 +669,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -598,46 +678,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -653,22 +733,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -691,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -700,7 +780,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -709,46 +789,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -765,21 +845,21 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -802,16 +882,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -820,46 +912,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -879,18 +971,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -913,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -922,7 +1014,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -931,46 +1023,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -990,18 +1082,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1033,7 +1125,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1042,46 +1134,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1097,22 +1189,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1135,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1156,7 +1248,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1165,46 +1257,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1224,18 +1316,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1267,7 +1359,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1276,46 +1368,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1335,18 +1427,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1378,7 +1470,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1387,46 +1479,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1446,18 +1538,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1489,7 +1581,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1498,46 +1590,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1557,18 +1649,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +1683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1600,7 +1692,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1609,46 +1701,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>

--- a/REVER_DailyTracker_20200429.xlsx
+++ b/REVER_DailyTracker_20200429.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B10135-62F5-4C01-8277-1B4E9FB5DDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CDBDB7-6632-42AA-B34C-710ABA1E224D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -733,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/REVER_DailyTracker_20200429.xlsx
+++ b/REVER_DailyTracker_20200429.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mujib\OneDrive\Desktop\Daily Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B145B01-48AE-4106-988B-2F6BD11F613C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50766B62-EFE9-4F1E-B427-A6BE2C443691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -87,26 +87,18 @@
     <t>Loginpage (Frontend)</t>
   </si>
   <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t>Sony P&amp;L Clarification</t>
-  </si>
-  <si>
-    <t>OW Sales data verified</t>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,29 +119,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,25 +197,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -264,48 +218,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{977A165A-86B7-4A3D-BA0A-F488ABBCA049}"/>
-    <cellStyle name="標準 2 2" xfId="2" xr:uid="{E4B2AE11-5705-4849-91FC-595C833D5885}"/>
-    <cellStyle name="標準 2 3" xfId="3" xr:uid="{1CDA0DCB-70E4-4DFB-B365-A1B80010F7DD}"/>
-    <cellStyle name="標準 3" xfId="4" xr:uid="{1CA9189C-1243-479D-B428-B7CFA63C9349}"/>
-    <cellStyle name="標準 4" xfId="5" xr:uid="{6C37E308-D74C-4EC7-97DC-729B90EC5481}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D5285C25-DF5E-47AD-BB61-8EBDD2655ECD}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -616,22 +552,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -650,32 +586,32 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
         <v>43950</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -684,46 +620,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -740,21 +676,21 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -777,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -786,7 +722,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -795,46 +731,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -850,22 +786,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -888,28 +824,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -918,46 +842,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -977,18 +901,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1020,7 +944,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1029,46 +953,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1088,18 +1012,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1131,7 +1055,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1140,46 +1064,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1199,18 +1123,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1233,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1254,7 +1178,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1263,46 +1187,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1322,18 +1246,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1365,7 +1289,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1374,46 +1298,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1433,18 +1357,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1476,7 +1400,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1485,46 +1409,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1544,18 +1468,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1578,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1587,7 +1511,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1596,46 +1520,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1652,21 +1576,21 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1689,26 +1613,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.35</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1717,46 +1631,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>

--- a/REVER_DailyTracker_20200429.xlsx
+++ b/REVER_DailyTracker_20200429.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50766B62-EFE9-4F1E-B427-A6BE2C443691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" iterate="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -89,16 +83,28 @@
   <si>
     <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
 if any changes or modification can be done.</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -348,7 +354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -542,32 +548,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -588,7 +594,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -611,7 +617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -620,46 +626,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -672,25 +678,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -722,7 +853,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -731,46 +862,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -782,26 +913,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -824,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -833,7 +964,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -842,46 +973,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -893,26 +1024,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -935,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -944,7 +1075,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -953,46 +1084,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1004,26 +1135,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1055,7 +1309,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1064,46 +1318,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1115,26 +1369,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1157,28 +1411,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1187,46 +1429,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1238,26 +1480,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1289,7 +1531,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1298,46 +1540,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1349,26 +1591,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1400,7 +1642,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1409,268 +1651,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>

--- a/REVER_DailyTracker_20200429.xlsx
+++ b/REVER_DailyTracker_20200429.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26974342-F926-4F16-B75D-0047008C34CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -18,23 +24,17 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -95,16 +95,22 @@
   </si>
   <si>
     <t>APK sent.</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,10 +225,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -242,9 +267,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,14 +577,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -678,10 +707,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -803,7 +832,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -913,119 +1077,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1136,7 +1189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -1259,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1370,7 +1423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1481,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1592,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/REVER_DailyTracker_20200429.xlsx
+++ b/REVER_DailyTracker_20200429.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26974342-F926-4F16-B75D-0047008C34CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF994008-C8B5-453F-97F7-F116881D4DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>29-04-2020</t>
+  </si>
+  <si>
+    <t>B2C App</t>
+  </si>
+  <si>
+    <t>Worked on Invoice</t>
+  </si>
+  <si>
+    <t>creditinfo remove macro</t>
+  </si>
+  <si>
+    <t>Working on sample code to insert frame of cell,background color</t>
+  </si>
+  <si>
+    <t>Tryin on sample code</t>
   </si>
 </sst>
 </file>
@@ -231,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -270,6 +288,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -383,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -591,15 +610,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -623,7 +642,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -714,15 +733,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -835,19 +854,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -873,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -894,7 +913,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -974,15 +993,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1081,19 +1100,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1121,21 +1140,43 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -1196,15 +1237,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1319,15 +1360,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1430,15 +1471,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1541,15 +1582,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1652,15 +1693,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
